--- a/public/download/actualisation/ECO-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/ECO-donnees-branches-2018_actualisation-2021.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>EMPREINTE DES COMPTES DE PRODUCTION PAR BRANCHE</t>
   </si>
@@ -373,9 +373,6 @@
     <t xml:space="preserve">61,6</t>
   </si>
   <si>
-    <t xml:space="preserve">63,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">3,259</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t xml:space="preserve">54,4</t>
   </si>
   <si>
-    <t xml:space="preserve">56,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FABRICATION DE DENRÉES ALIMENTAIRES, DE BOISSONS ET DE PRODUITS À BASE DE TABAC</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t xml:space="preserve">65,3</t>
   </si>
   <si>
-    <t xml:space="preserve">67,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">FABRICATION DE TEXTILES, INDUSTRIES DE L'HABILLEMENT, INDUSTRIE DU CUIR ET DE LA CHAUSSURE</t>
   </si>
   <si>
@@ -421,111 +412,90 @@
     <t xml:space="preserve">53,8</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAVAIL DU BOIS, INDUSTRIES DU PAPIER ET IMPRIMERIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COKÉFACTION ET RAFFINAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIE CHIMIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIE PHARMACEUTIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICATION DE PRODUITS EN CAOUTCHOUC, EN PLASTIQUE ET D'AUTRES PRODUITS MINÉRAUX NON MÉTALLIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÉTALLURGIE ET FABRICATION DE PRODUITS MÉTALLIQUES, HORS MACHINES ET ÉQUIPEMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICATION DE PRODUITS INFORMATIQUES, ÉLECTRONIQUES ET OPTIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26002</t>
+  </si>
+  <si>
     <t xml:space="preserve">55,6</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAVAIL DU BOIS, INDUSTRIES DU PAPIER ET IMPRIMERIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COKÉFACTION ET RAFFINAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDUSTRIE CHIMIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDUSTRIE PHARMACEUTIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABRICATION DE PRODUITS EN CAOUTCHOUC, EN PLASTIQUE ET D'AUTRES PRODUITS MINÉRAUX NON MÉTALLIQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MÉTALLURGIE ET FABRICATION DE PRODUITS MÉTALLIQUES, HORS MACHINES ET ÉQUIPEMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABRICATION DE PRODUITS INFORMATIQUES, ÉLECTRONIQUES ET OPTIQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">FABRICATION D ÉQUIPEMENTS ÉLECTRIQUES</t>
   </si>
   <si>
@@ -538,9 +508,6 @@
     <t xml:space="preserve">56,9</t>
   </si>
   <si>
-    <t xml:space="preserve">58,8</t>
-  </si>
-  <si>
     <t xml:space="preserve">FABRICATION DE MACHINES ET ÉQUIPEMENTS N.C.A.</t>
   </si>
   <si>
@@ -553,9 +520,6 @@
     <t xml:space="preserve">57,7</t>
   </si>
   <si>
-    <t xml:space="preserve">59,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">FABRICATION DE MATÉRIELS DE TRANSPORT</t>
   </si>
   <si>
@@ -568,9 +532,6 @@
     <t xml:space="preserve">48,1</t>
   </si>
   <si>
-    <t xml:space="preserve">49,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">AUTRES INDUSTRIES MANUFACTURIÈRES ; RÉPARATION ET INSTALLATION DE MACHINES ET D'ÉQUIPEMENTS</t>
   </si>
   <si>
@@ -583,9 +544,6 @@
     <t xml:space="preserve">63,8</t>
   </si>
   <si>
-    <t xml:space="preserve">65,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'ÉLECTRICITÉ, DE GAZ, DE VAPEUR ET D'AIR CONDITIONNÉ</t>
   </si>
   <si>
@@ -598,9 +556,6 @@
     <t xml:space="preserve">56,6</t>
   </si>
   <si>
-    <t xml:space="preserve">58,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'EAU ; ASSAINISSEMENT, GESTION DES DÉCHETS ET DÉPOLLUTION</t>
   </si>
   <si>
@@ -613,9 +568,6 @@
     <t xml:space="preserve">68,7</t>
   </si>
   <si>
-    <t xml:space="preserve">70,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONSTRUCTION</t>
   </si>
   <si>
@@ -628,153 +580,126 @@
     <t xml:space="preserve">71,7</t>
   </si>
   <si>
+    <t xml:space="preserve">COMMERCE ; RÉPARATION D'AUTOMOBILES ET DE MOTOCYCLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTS ET ENTREPOSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÉBERGEMENT ET RESTAURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉDITION, AUDIOVISUEL ET DIFFUSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÉLÉCOMMUNICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS INFORMATIQUES ET SERVICES D'INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS FINANCIÈRES ET D'ASSURANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS IMMOBILIÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS JURIDIQUES, COMPTABLES, DE GESTION, D'ARCHITECTURE, D'INGÉNIERIE, DE CONTRÔLE ET D'ANALYSES TECHNIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECHERCHE-DÉVELOPPEMENT SCIENTIFIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67110</t>
+  </si>
+  <si>
     <t xml:space="preserve">74</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMERCE ; RÉPARATION D'AUTOMOBILES ET DE MOTOCYCLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSPORTS ET ENTREPOSAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HÉBERGEMENT ET RESTAURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÉDITION, AUDIOVISUEL ET DIFFUSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÉLÉCOMMUNICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS INFORMATIQUES ET SERVICES D'INFORMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS FINANCIÈRES ET D'ASSURANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS IMMOBILIÈRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS JURIDIQUES, COMPTABLES, DE GESTION, D'ARCHITECTURE, D'INGÉNIERIE, DE CONTRÔLE ET D'ANALYSES TECHNIQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECHERCHE-DÉVELOPPEMENT SCIENTIFIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">AUTRES ACTIVITÉS SPÉCIALISÉES, SCIENTIFIQUES ET TECHNIQUES</t>
   </si>
   <si>
@@ -787,9 +712,6 @@
     <t xml:space="preserve">77,7</t>
   </si>
   <si>
-    <t xml:space="preserve">80,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVITÉS DE SERVICES ADMINISTRATIFS ET DE SOUTIEN</t>
   </si>
   <si>
@@ -802,9 +724,6 @@
     <t xml:space="preserve">80,3</t>
   </si>
   <si>
-    <t xml:space="preserve">82,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADMINISTRATION PUBLIQUE ET DÉFENSE - SÉCURITÉ SOCIALE OBLIGATOIRE</t>
   </si>
   <si>
@@ -817,9 +736,6 @@
     <t xml:space="preserve">83,4</t>
   </si>
   <si>
-    <t xml:space="preserve">86,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENSEIGNEMENT</t>
   </si>
   <si>
@@ -832,9 +748,6 @@
     <t xml:space="preserve">90,6</t>
   </si>
   <si>
-    <t xml:space="preserve">93,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVITÉS POUR LA SANTÉ HUMAINE</t>
   </si>
   <si>
@@ -847,9 +760,6 @@
     <t xml:space="preserve">86</t>
   </si>
   <si>
-    <t xml:space="preserve">88,8</t>
-  </si>
-  <si>
     <t xml:space="preserve">HÉBERGEMENT MÉDICO-SOCIAL ET SOCIAL ET ACTION SOCIALE SANS HÉBERGEMENT</t>
   </si>
   <si>
@@ -862,9 +772,6 @@
     <t xml:space="preserve">90,5</t>
   </si>
   <si>
-    <t xml:space="preserve">93,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARTS, SPECTACLES ET ACTIVITÉS RÉCRÉATIVES</t>
   </si>
   <si>
@@ -877,9 +784,6 @@
     <t xml:space="preserve">78,6</t>
   </si>
   <si>
-    <t xml:space="preserve">81,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">AUTRES ACTIVITÉS DE SERVICES</t>
   </si>
   <si>
@@ -892,9 +796,6 @@
     <t xml:space="preserve">82,7</t>
   </si>
   <si>
-    <t xml:space="preserve">85,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVITÉS DES MÉNAGES EN TANT QU'EMPLOYEURS ; ACTIVITÉS INDIFFÉRENCIÉES DES MÉNAGES EN TANT QUE PRODUCTEURS DE BIENS ET SERVICES POUR USAGE PROPRE</t>
   </si>
   <si>
@@ -907,9 +808,6 @@
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">103,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
@@ -919,9 +817,6 @@
     <t xml:space="preserve">74,6</t>
   </si>
   <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1) en millions d'euros courants</t>
   </si>
   <si>
@@ -937,18 +832,12 @@
     <t xml:space="preserve">52,4</t>
   </si>
   <si>
-    <t xml:space="preserve">54,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">46079</t>
   </si>
   <si>
     <t xml:space="preserve">5,8</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">217841</t>
   </si>
   <si>
@@ -961,108 +850,72 @@
     <t xml:space="preserve">16,4</t>
   </si>
   <si>
-    <t xml:space="preserve">16,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">50770</t>
   </si>
   <si>
     <t xml:space="preserve">45,6</t>
   </si>
   <si>
-    <t xml:space="preserve">47,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">63598</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">15,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">112677</t>
   </si>
   <si>
     <t xml:space="preserve">32,1</t>
   </si>
   <si>
-    <t xml:space="preserve">33,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">53523</t>
   </si>
   <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
-    <t xml:space="preserve">35,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">81954</t>
   </si>
   <si>
     <t xml:space="preserve">41,8</t>
   </si>
   <si>
-    <t xml:space="preserve">43,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">129235</t>
   </si>
   <si>
     <t xml:space="preserve">40,3</t>
   </si>
   <si>
-    <t xml:space="preserve">41,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">74079</t>
   </si>
   <si>
     <t xml:space="preserve">19,8</t>
   </si>
   <si>
-    <t xml:space="preserve">20,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">49593</t>
   </si>
   <si>
     <t xml:space="preserve">24,3</t>
   </si>
   <si>
-    <t xml:space="preserve">25,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">84430</t>
   </si>
   <si>
     <t xml:space="preserve">26,4</t>
   </si>
   <si>
-    <t xml:space="preserve">27,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">247901</t>
   </si>
   <si>
     <t xml:space="preserve">28,3</t>
   </si>
   <si>
-    <t xml:space="preserve">29,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">108548</t>
   </si>
   <si>
     <t xml:space="preserve">44,3</t>
   </si>
   <si>
-    <t xml:space="preserve">45,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">125622</t>
   </si>
   <si>
@@ -1072,18 +925,12 @@
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">72,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">298417</t>
   </si>
   <si>
     <t xml:space="preserve">72</t>
   </si>
   <si>
-    <t xml:space="preserve">74,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">451825</t>
   </si>
   <si>
@@ -1096,18 +943,12 @@
     <t xml:space="preserve">77,9</t>
   </si>
   <si>
-    <t xml:space="preserve">80,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">63985</t>
   </si>
   <si>
     <t xml:space="preserve">66</t>
   </si>
   <si>
-    <t xml:space="preserve">68,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">58702</t>
   </si>
   <si>
@@ -1120,27 +961,18 @@
     <t xml:space="preserve">72,5</t>
   </si>
   <si>
-    <t xml:space="preserve">74,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">237250</t>
   </si>
   <si>
     <t xml:space="preserve">77,4</t>
   </si>
   <si>
-    <t xml:space="preserve">79,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">331336</t>
   </si>
   <si>
     <t xml:space="preserve">86,6</t>
   </si>
   <si>
-    <t xml:space="preserve">89,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">290235</t>
   </si>
   <si>
@@ -1150,18 +982,12 @@
     <t xml:space="preserve">64,9</t>
   </si>
   <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
     <t xml:space="preserve">45495</t>
   </si>
   <si>
     <t xml:space="preserve">65,8</t>
   </si>
   <si>
-    <t xml:space="preserve">67,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">250449</t>
   </si>
   <si>
@@ -1174,9 +1000,6 @@
     <t xml:space="preserve">83,6</t>
   </si>
   <si>
-    <t xml:space="preserve">86,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">137165</t>
   </si>
   <si>
@@ -1186,9 +1009,6 @@
     <t xml:space="preserve">85,7</t>
   </si>
   <si>
-    <t xml:space="preserve">88,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">84247</t>
   </si>
   <si>
@@ -1199,9 +1019,6 @@
   </si>
   <si>
     <t xml:space="preserve">77,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,1</t>
   </si>
   <si>
     <t xml:space="preserve">4918916</t>
@@ -1939,712 +1756,712 @@
         <v>102</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="C7" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>108</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>113</v>
-      </c>
       <c r="E8" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>118</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" s="35" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23">
       <c r="A23" s="35" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24">
       <c r="A24" s="35" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25">
       <c r="A25" s="35" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="12"/>
     </row>
     <row r="27">
       <c r="A27" s="35" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29">
       <c r="A29" s="35" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31">
       <c r="A31" s="35" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32">
       <c r="A32" s="35" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33">
       <c r="A33" s="35" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34">
       <c r="A34" s="35" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35">
       <c r="A35" s="35" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36">
       <c r="A36" s="35" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37">
       <c r="A37" s="35" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38">
       <c r="A38" s="35" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39">
       <c r="A39" s="35" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="12"/>
     </row>
     <row r="40">
       <c r="A40" s="35" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41">
       <c r="A41" s="35" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" s="35" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="12"/>
@@ -2660,7 +2477,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -2671,7 +2488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -2761,7 +2578,7 @@
     </row>
     <row r="4" ht="14.4" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="18" t="s">
@@ -2799,718 +2616,718 @@
         <v>100</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>106</v>
-      </c>
       <c r="C7" s="26" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" s="35" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23">
       <c r="A23" s="35" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24">
       <c r="A24" s="35" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25">
       <c r="A25" s="35" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="12"/>
     </row>
     <row r="27">
       <c r="A27" s="35" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29">
       <c r="A29" s="35" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31">
       <c r="A31" s="35" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32">
       <c r="A32" s="35" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33">
       <c r="A33" s="35" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34">
       <c r="A34" s="35" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35">
       <c r="A35" s="35" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36">
       <c r="A36" s="35" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37">
       <c r="A37" s="35" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38">
       <c r="A38" s="35" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39">
       <c r="A39" s="35" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="12"/>
     </row>
     <row r="40">
       <c r="A40" s="35" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41">
       <c r="A41" s="35" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" s="35" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="12"/>
@@ -3526,7 +3343,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -3537,7 +3354,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -3783,9 +3600,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6723B123-EA92-4672-9B0D-2CE2D1D4D5DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571BFAB0-C3D8-431B-B8B6-A12B4D5E7856}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEC264C-24C4-4BFC-AF03-528AE84F6822}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C603FED7-A07F-403B-B2AB-4EEC9A20814B}"/>
 </file>